--- a/Output/2023/116-17.18.3-1828-SG_STT_NSDSFDDNR-1132.xlsx
+++ b/Output/2023/116-17.18.3-1828-SG_STT_NSDSFDDNR-1132.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="593">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -1794,18 +1794,6 @@
   </si>
   <si>
     <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
   </si>
 </sst>
 </file>
@@ -2507,7 +2495,7 @@
         <v>2022</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
         <v>2022</v>
@@ -2807,7 +2795,7 @@
         <v>2022</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="H14" t="n">
         <v>2022</v>
@@ -2857,7 +2845,7 @@
         <v>2022</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="H15" t="n">
         <v>2022</v>
@@ -3607,7 +3595,7 @@
         <v>2022</v>
       </c>
       <c r="G30" t="s">
-        <v>593</v>
+        <v>54</v>
       </c>
       <c r="H30" t="n">
         <v>2022</v>
@@ -3807,7 +3795,7 @@
         <v>2022</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H34" t="n">
         <v>2022</v>
@@ -16657,7 +16645,7 @@
         <v>2021</v>
       </c>
       <c r="G291" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H291" t="n">
         <v>2021</v>
@@ -16957,7 +16945,7 @@
         <v>2021</v>
       </c>
       <c r="G297" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="H297" t="n">
         <v>2021</v>
@@ -17757,7 +17745,7 @@
         <v>2021</v>
       </c>
       <c r="G313" t="s">
-        <v>593</v>
+        <v>54</v>
       </c>
       <c r="H313" t="n">
         <v>2021</v>
@@ -17807,7 +17795,7 @@
         <v>2021</v>
       </c>
       <c r="G314" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="H314" t="n">
         <v>2021</v>
@@ -17957,7 +17945,7 @@
         <v>2021</v>
       </c>
       <c r="G317" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="H317" t="n">
         <v>2021</v>
@@ -30807,7 +30795,7 @@
         <v>2020</v>
       </c>
       <c r="G574" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H574" t="n">
         <v>2020</v>
@@ -31107,7 +31095,7 @@
         <v>2020</v>
       </c>
       <c r="G580" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="H580" t="n">
         <v>2020</v>
@@ -31907,7 +31895,7 @@
         <v>2020</v>
       </c>
       <c r="G596" t="s">
-        <v>593</v>
+        <v>54</v>
       </c>
       <c r="H596" t="n">
         <v>2020</v>
@@ -31957,7 +31945,7 @@
         <v>2020</v>
       </c>
       <c r="G597" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="H597" t="n">
         <v>2020</v>
@@ -32107,7 +32095,7 @@
         <v>2020</v>
       </c>
       <c r="G600" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="H600" t="n">
         <v>2020</v>
@@ -44957,7 +44945,7 @@
         <v>2019</v>
       </c>
       <c r="G857" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="H857" t="n">
         <v>2019</v>
@@ -45257,7 +45245,7 @@
         <v>2019</v>
       </c>
       <c r="G863" t="s">
-        <v>594</v>
+        <v>70</v>
       </c>
       <c r="H863" t="n">
         <v>2019</v>
@@ -45307,7 +45295,7 @@
         <v>2019</v>
       </c>
       <c r="G864" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H864" t="n">
         <v>2019</v>
@@ -46057,7 +46045,7 @@
         <v>2019</v>
       </c>
       <c r="G879" t="s">
-        <v>595</v>
+        <v>178</v>
       </c>
       <c r="H879" t="n">
         <v>2019</v>
@@ -46107,7 +46095,7 @@
         <v>2019</v>
       </c>
       <c r="G880" t="s">
-        <v>596</v>
+        <v>49</v>
       </c>
       <c r="H880" t="n">
         <v>2019</v>
@@ -46257,7 +46245,7 @@
         <v>2019</v>
       </c>
       <c r="G883" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="H883" t="n">
         <v>2019</v>

--- a/Output/2023/116-17.18.3-1828-SG_STT_NSDSFDDNR-1132.xlsx
+++ b/Output/2023/116-17.18.3-1828-SG_STT_NSDSFDDNR-1132.xlsx
@@ -2245,7 +2245,7 @@
         <v>2022</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
         <v>2022</v>
@@ -2395,7 +2395,7 @@
         <v>2022</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H6" t="n">
         <v>2022</v>
@@ -2595,7 +2595,7 @@
         <v>2022</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
         <v>2022</v>
@@ -2645,7 +2645,7 @@
         <v>2022</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H11" t="n">
         <v>2022</v>
@@ -2695,7 +2695,7 @@
         <v>2022</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H12" t="n">
         <v>2022</v>
@@ -2745,7 +2745,7 @@
         <v>2022</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H13" t="n">
         <v>2022</v>
@@ -2945,7 +2945,7 @@
         <v>2022</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H17" t="n">
         <v>2022</v>
@@ -3045,7 +3045,7 @@
         <v>2022</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H19" t="n">
         <v>2022</v>
@@ -3095,7 +3095,7 @@
         <v>2022</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H20" t="n">
         <v>2022</v>
@@ -3245,7 +3245,7 @@
         <v>2022</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H23" t="n">
         <v>2022</v>
@@ -3445,7 +3445,7 @@
         <v>2022</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H27" t="n">
         <v>2022</v>
@@ -3495,7 +3495,7 @@
         <v>2022</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H28" t="n">
         <v>2022</v>
@@ -3645,7 +3645,7 @@
         <v>2022</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H31" t="n">
         <v>2022</v>
@@ -16395,7 +16395,7 @@
         <v>2021</v>
       </c>
       <c r="G286" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H286" t="n">
         <v>2021</v>
@@ -16695,7 +16695,7 @@
         <v>2021</v>
       </c>
       <c r="G292" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H292" t="n">
         <v>2021</v>
@@ -16795,7 +16795,7 @@
         <v>2021</v>
       </c>
       <c r="G294" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H294" t="n">
         <v>2021</v>
@@ -16995,7 +16995,7 @@
         <v>2021</v>
       </c>
       <c r="G298" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H298" t="n">
         <v>2021</v>
@@ -17095,7 +17095,7 @@
         <v>2021</v>
       </c>
       <c r="G300" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H300" t="n">
         <v>2021</v>
@@ -17145,7 +17145,7 @@
         <v>2021</v>
       </c>
       <c r="G301" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H301" t="n">
         <v>2021</v>
@@ -17195,7 +17195,7 @@
         <v>2021</v>
       </c>
       <c r="G302" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H302" t="n">
         <v>2021</v>
@@ -17595,7 +17595,7 @@
         <v>2021</v>
       </c>
       <c r="G310" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H310" t="n">
         <v>2021</v>
@@ -17645,7 +17645,7 @@
         <v>2021</v>
       </c>
       <c r="G311" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H311" t="n">
         <v>2021</v>
@@ -30545,7 +30545,7 @@
         <v>2020</v>
       </c>
       <c r="G569" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H569" t="n">
         <v>2020</v>
@@ -30845,7 +30845,7 @@
         <v>2020</v>
       </c>
       <c r="G575" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H575" t="n">
         <v>2020</v>
@@ -30945,7 +30945,7 @@
         <v>2020</v>
       </c>
       <c r="G577" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H577" t="n">
         <v>2020</v>
@@ -31145,7 +31145,7 @@
         <v>2020</v>
       </c>
       <c r="G581" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H581" t="n">
         <v>2020</v>
@@ -31245,7 +31245,7 @@
         <v>2020</v>
       </c>
       <c r="G583" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H583" t="n">
         <v>2020</v>
@@ -31295,7 +31295,7 @@
         <v>2020</v>
       </c>
       <c r="G584" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H584" t="n">
         <v>2020</v>
@@ -31345,7 +31345,7 @@
         <v>2020</v>
       </c>
       <c r="G585" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H585" t="n">
         <v>2020</v>
@@ -31745,7 +31745,7 @@
         <v>2020</v>
       </c>
       <c r="G593" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H593" t="n">
         <v>2020</v>
@@ -31795,7 +31795,7 @@
         <v>2020</v>
       </c>
       <c r="G594" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H594" t="n">
         <v>2020</v>
@@ -45095,7 +45095,7 @@
         <v>2019</v>
       </c>
       <c r="G860" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H860" t="n">
         <v>2019</v>
@@ -45395,7 +45395,7 @@
         <v>2019</v>
       </c>
       <c r="G866" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H866" t="n">
         <v>2019</v>
@@ -45445,7 +45445,7 @@
         <v>2019</v>
       </c>
       <c r="G867" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H867" t="n">
         <v>2019</v>
@@ -45495,7 +45495,7 @@
         <v>2019</v>
       </c>
       <c r="G868" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H868" t="n">
         <v>2019</v>
@@ -45895,7 +45895,7 @@
         <v>2019</v>
       </c>
       <c r="G876" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H876" t="n">
         <v>2019</v>
@@ -45945,7 +45945,7 @@
         <v>2019</v>
       </c>
       <c r="G877" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H877" t="n">
         <v>2019</v>
